--- a/staleTime + cacheTime.xlsx
+++ b/staleTime + cacheTime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DUC HAU\Desktop\react-query\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C5AC00-B589-4F99-B7F6-D4734BD5CD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA94A370-5405-450F-82DC-FC71E52CD59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{87D3E25E-1403-44BF-BE38-18410C222FBD}"/>
   </bookViews>
@@ -857,7 +857,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -943,6 +943,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -959,6 +962,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>310880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07923D06-5216-0391-1B95-3E08C87B3D33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2219325" y="2419350"/>
+          <a:ext cx="9772650" cy="2882630"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1278,10 +1330,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B8D676-5EC6-4A58-B115-E53AE0A7C5BB}">
-  <dimension ref="B3:K27"/>
+  <dimension ref="B3:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1314,181 +1366,199 @@
       <c r="E4" s="14"/>
       <c r="F4" s="15"/>
     </row>
-    <row r="5" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="28" t="s">
+    <row r="5" spans="2:11" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+    </row>
+    <row r="6" spans="2:11" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+    </row>
+    <row r="7" spans="2:11" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+    </row>
+    <row r="8" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="28"/>
-    </row>
-    <row r="8" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="C9" s="28"/>
+    </row>
+    <row r="11" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+    <row r="12" spans="2:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E12" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+    <row r="13" spans="2:11" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
+    <row r="15" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E15" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+    <row r="16" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E16" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="28" t="s">
+    <row r="17" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="28"/>
-    </row>
-    <row r="19" spans="2:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="29" t="s">
+      <c r="C20" s="28"/>
+    </row>
+    <row r="22" spans="2:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D22" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="23"/>
-    </row>
-    <row r="20" spans="2:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="29"/>
-      <c r="C20" s="10" t="s">
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="23"/>
+    </row>
+    <row r="23" spans="2:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="29"/>
+      <c r="C23" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="26"/>
-    </row>
-    <row r="22" spans="2:8" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="19" t="s">
+      <c r="D23" s="24"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="26"/>
+    </row>
+    <row r="25" spans="2:8" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D25" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-    </row>
-    <row r="23" spans="2:8" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="20"/>
-      <c r="C23" s="10" t="s">
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+    </row>
+    <row r="26" spans="2:8" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="20"/>
+      <c r="C26" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-    </row>
-    <row r="24" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:8" ht="72.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+    </row>
+    <row r="27" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:8" ht="72.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="12"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GkAwV+CSAJD2vO07feTespss3yPZ5WCsmHaHrKo+EIzulo17QZjzS4lN3eBW2V34qxxBrU9gc1sC2Yy+ocCc9w==" saltValue="3KLnYh8w4HdPR+xe1GyKaQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="8">
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C3:F3"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D22:H23"/>
+    <mergeCell ref="D25:H26"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D19:H20"/>
-    <mergeCell ref="D22:H23"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>